--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportQualityControls.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportQualityControls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,11 +14,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Analyses!$B$3:$N$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Prélèvements!$B$3:$J$3</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Prélèvements!$B$3:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Produits!$B$3:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Produits!$B$3:$I$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Prélèvements!$B$3:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -219,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,11 +240,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -264,7 +257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
+        <fgColor rgb="FF004254"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
@@ -303,39 +296,31 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -348,7 +333,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -387,7 +372,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004254"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -413,28 +398,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,7 +491,7 @@
   <autoFilter ref="B3:I3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -517,67 +501,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="16.7295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="16.73"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -585,39 +568,39 @@
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:J3"/>
+  <autoFilter ref="B3:I3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -627,89 +610,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1836734693878"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="23.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="23.08"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -738,22 +720,22 @@
       <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -761,7 +743,7 @@
   <autoFilter ref="B3:N3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
